--- a/lib/tasks/dishes.xlsx
+++ b/lib/tasks/dishes.xlsx
@@ -5,17 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MadisonRong/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MadisonRong/BurgerBitch/lib/tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="2120" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20280" yWindow="2120" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
     <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="332">
   <si>
     <t>银姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,6 +1157,78 @@
   </si>
   <si>
     <t>小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捌零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卤肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细卤肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭胸片饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳗鱼炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱鸡饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱鱼旦饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁叉烧饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜扣肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼香肉丝饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇滑鸡饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根滑蛋饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧牛腩饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱牛肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订餐电话：13802538190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,8 +1304,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1265,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1275,6 +1350,7 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1283,6 +1359,7 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2196,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3860,7 +3937,7 @@
   <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5041,4 +5118,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lib/tasks/dishes.xlsx
+++ b/lib/tasks/dishes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="2120" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="20580" yWindow="2800" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
     <sheet name="工作表4" sheetId="4" r:id="rId4"/>
     <sheet name="工作表5" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="389">
   <si>
     <t>银姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1230,234 @@
   </si>
   <si>
     <t>15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味汤粉王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色汤饭类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨猪杂饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇排骨饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛筋丸饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪杂饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨汤猪杂米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨汤猪杂河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨汤猪杂桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨猪手工面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒骨猪杂粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛筋丸面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛筋丸米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛筋丸河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛筋丸桂林米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订餐电话：13725439798</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1286,6 +1515,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="American Typewriter"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1304,7 +1545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1324,8 +1565,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1339,8 +1588,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1351,6 +1603,10 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1360,6 +1616,10 @@
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2273,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -2936,7 +3196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5124,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5311,5 +5571,1037 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>372</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>374</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>377</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>378</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>379</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>385</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>387</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>387</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/lib/tasks/dishes.xlsx
+++ b/lib/tasks/dishes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="2800" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-18540" yWindow="2760" windowWidth="15480" windowHeight="16880" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="393">
   <si>
     <t>银姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,6 +1458,34 @@
   </si>
   <si>
     <t>订餐电话：13725439798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白饭</t>
+    <rPh sb="0" eb="1">
+      <t>bai'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元</t>
+    <rPh sb="1" eb="2">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭类</t>
+    <rPh sb="0" eb="1">
+      <t>fan'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3元</t>
+    <rPh sb="1" eb="2">
+      <t>yuan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1894,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2513,15 +2541,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2531,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3175,15 +3214,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>389</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3194,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4179,11 +4229,22 @@
         <v>311</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B90" s="1"/>
+      <c r="B91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4194,10 +4255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A107" sqref="A107:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5363,15 +5424,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C107" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B109" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5382,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5563,8 +5635,19 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5577,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5686,7 +5769,7 @@
         <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
         <v>343</v>
@@ -5697,7 +5780,7 @@
         <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
         <v>343</v>
@@ -5708,7 +5791,7 @@
         <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>343</v>
@@ -5716,13 +5799,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5730,7 +5813,7 @@
         <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>346</v>
@@ -5741,7 +5824,7 @@
         <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
         <v>346</v>
@@ -5749,24 +5832,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5774,7 +5857,7 @@
         <v>347</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>369</v>
@@ -5782,164 +5865,164 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>349</v>
@@ -5947,10 +6030,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
         <v>349</v>
@@ -5958,10 +6041,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C35" t="s">
         <v>349</v>
@@ -5969,633 +6052,611 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s">
         <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s">
         <v>365</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s">
         <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B42" t="s">
-        <v>344</v>
+        <v>367</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B43" t="s">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B44" t="s">
-        <v>295</v>
+        <v>367</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>385</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>169</v>
+        <v>387</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>385</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>175</v>
+        <v>387</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>385</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>187</v>
+        <v>387</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>387</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>34</v>
+        <v>389</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>387</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>387</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
         <v>388</v>
       </c>
     </row>
